--- a/biology/Biochimie/Suc_gastrique/Suc_gastrique.xlsx
+++ b/biology/Biochimie/Suc_gastrique/Suc_gastrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le suc gastrique  est le liquide biologique produit par les glandes de la paroi de l'estomac (glandes gastriques).
 </t>
@@ -511,7 +523,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il participe à la digestion à la sortie de l'estomac, dans le duodénum, en réduisant de grandes portions d'aliments en de plus petites, qui pourront ensuite être brisées et absorbées dans les intestins par les villosités intestinales.
 C'est Lazzaro Spallanzani qui, le premier, a établi grâce à deux expériences que le suc gastrique attaquait la viande. Les principales études qui suivirent furent celles d'Ivan Pavlov. 
@@ -544,7 +558,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses principaux constituants varient selon les espèces et l'âge des individus.  
 Ce sont principalement : 
@@ -583,10 +599,12 @@
           <t>Régulation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En partie hormonale, les cellules G produisent de la gastrine, une hormone, entraînant une augmentation de la production d'acide chlorhydrique par les cellules pariétales.
-En partie nerveuse par le nerf vague qui va entraîner la production d'un suc riche en enzyme[1].
+En partie nerveuse par le nerf vague qui va entraîner la production d'un suc riche en enzyme.
 </t>
         </is>
       </c>
@@ -615,7 +633,9 @@
           <t>Utilisation médicinale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le suc gastrique de bétail, élevé pour la consommation, est réservé à des utilisations pharmacologiques de précision.
 </t>
